--- a/excel/课程支撑矩阵.xlsx
+++ b/excel/课程支撑矩阵.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="147">
   <si>
     <t>北京理工大学软件工程专业毕业要求指标点支撑课程关联矩阵</t>
   </si>
@@ -559,12 +559,16 @@
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +807,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1113,12 +1132,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,21 +1453,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1457,6 +1464,24 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1485,12 +1510,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1812,173 +1838,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111" t="s">
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111" t="s">
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111" t="s">
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111" t="s">
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111" t="s">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111" t="s">
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111" t="s">
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111" t="s">
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="AK2" s="112"/>
+      <c r="AK2" s="107"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="104" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="104" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="104" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="104" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="104" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="104" t="s">
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="104" t="s">
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="104" t="s">
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="104" t="s">
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="104" t="s">
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="104" t="s">
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="106"/>
+      <c r="AK3" s="112"/>
     </row>
     <row r="4" spans="1:37" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="95" t="s">
@@ -4555,6 +4581,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
@@ -4568,18 +4606,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4596,7 +4622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG5" sqref="AG5"/>
+      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4611,45 +4637,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="117"/>
       <c r="AL1" s="40"/>
       <c r="AM1" s="40"/>
       <c r="AN1" s="40"/>
@@ -4657,66 +4683,66 @@
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="117" t="s">
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="117" t="s">
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="117" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="117" t="s">
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="118"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="117" t="s">
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="117" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="117" t="s">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="117" t="s">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="117" t="s">
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="117" t="s">
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="118"/>
+      <c r="AK2" s="119"/>
       <c r="AL2" s="58"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
@@ -4724,66 +4750,66 @@
     </row>
     <row r="3" spans="1:46" s="2" customFormat="1" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="122" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="122" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="122" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="122" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="105"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="122" t="s">
+      <c r="W3" s="111"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="122" t="s">
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="122" t="s">
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="122" t="s">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="122" t="s">
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="122" t="s">
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="105"/>
+      <c r="AK3" s="111"/>
       <c r="AL3" s="59"/>
       <c r="AM3" s="60"/>
       <c r="AN3" s="60"/>
@@ -4791,66 +4817,66 @@
     </row>
     <row r="4" spans="1:46" s="98" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="96"/>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="113" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113" t="s">
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113" t="s">
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113" t="s">
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113" t="s">
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113" t="s">
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113" t="s">
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="113"/>
-      <c r="AE4" s="113" t="s">
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113" t="s">
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="113" t="s">
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="AK4" s="113"/>
+      <c r="AK4" s="114"/>
       <c r="AL4" s="100"/>
       <c r="AM4" s="99"/>
       <c r="AN4" s="101"/>
@@ -5017,7 +5043,7 @@
       <c r="AC6" s="42"/>
       <c r="AD6" s="32"/>
       <c r="AE6" s="30"/>
-      <c r="AF6" s="31" t="s">
+      <c r="AF6" s="123" t="s">
         <v>66</v>
       </c>
       <c r="AG6" s="30"/>
@@ -6175,7 +6201,7 @@
       <c r="AD25" s="43"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="31" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="AG25" s="30"/>
       <c r="AH25" s="31"/>
@@ -8684,17 +8710,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A1:AK1"/>
@@ -8711,16 +8736,17 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -8737,7 +8763,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL5" sqref="AL5"/>
+      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8752,237 +8778,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="116"/>
-      <c r="AE1" s="116"/>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="116"/>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="117"/>
       <c r="AL1" s="40"/>
     </row>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="117" t="s">
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="117" t="s">
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="117" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="117" t="s">
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="118"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="117" t="s">
+      <c r="W2" s="119"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="117" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="117" t="s">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="117" t="s">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="117" t="s">
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="117" t="s">
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="118"/>
+      <c r="AK2" s="119"/>
       <c r="AL2" s="58"/>
     </row>
     <row r="3" spans="1:46" s="2" customFormat="1" ht="154.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="122" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="122" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="122" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="122" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="105"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="122" t="s">
+      <c r="W3" s="111"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="122" t="s">
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="122" t="s">
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="122" t="s">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="122" t="s">
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="122" t="s">
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="105"/>
+      <c r="AK3" s="111"/>
       <c r="AL3" s="59"/>
     </row>
     <row r="4" spans="1:46" s="98" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="96"/>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="113" t="s">
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113" t="s">
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113" t="s">
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113" t="s">
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113" t="s">
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113" t="s">
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113" t="s">
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="113"/>
-      <c r="AE4" s="113" t="s">
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113" t="s">
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="113" t="s">
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="AK4" s="113"/>
+      <c r="AK4" s="114"/>
       <c r="AL4" s="100"/>
       <c r="AM4" s="99"/>
       <c r="AN4" s="101"/>
@@ -27854,27 +27880,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="B4:E4"/>
@@ -27891,6 +27896,27 @@
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
